--- a/code-team-selection/selection.xlsx
+++ b/code-team-selection/selection.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S60"/>
+  <dimension ref="A1:S109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,24 +528,24 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>k.nalwanga</t>
+          <t>a.avako</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -557,165 +557,113 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>d.lejeune</t>
+          <t>a.baguma</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>m.tumuramye</t>
+          <t>a.gautier</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -729,78 +677,42 @@
       <c r="I4" t="n">
         <v>1</v>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>48</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>48</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>q.musimenta</t>
+          <t>a.khainza</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -816,72 +728,64 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr"/>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>68</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>68</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>a.abbo</t>
+          <t>a.mtambo</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>28</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -890,80 +794,56 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>81</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>81</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>t.acom</t>
+          <t>a.nanjala</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -981,14 +861,42 @@
         <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
       <c r="S7" t="inlineStr">
         <is>
           <t>l</t>
@@ -998,21 +906,21 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>89</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>i.marie</t>
+          <t>a.nunez</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -1027,7 +935,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -1036,39 +944,35 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>114</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>114</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>v.bwambale</t>
+          <t>a.soong</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
@@ -1082,49 +986,25 @@
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
@@ -1132,21 +1012,21 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>118</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>118</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>q.mutabazi</t>
+          <t>a.tindimwebwa</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -1158,7 +1038,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1217,109 +1097,77 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>616</t>
+          <t>138</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>616</t>
+          <t>138</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>l.gutierrez</t>
+          <t>b.angella</t>
         </is>
       </c>
       <c r="D11" t="n">
         <v>21</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>779</t>
+          <t>143</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>779</t>
+          <t>143</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>s.binosman</t>
+          <t>b.ayuba</t>
         </is>
       </c>
       <c r="D12" t="n">
         <v>20</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1328,83 +1176,83 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>781</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>781</t>
+          <t>182</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>g.suad</t>
+          <t>b.luki</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1418,163 +1266,151 @@
       <c r="I13" t="n">
         <v>1</v>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>877</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>877</t>
+          <t>190</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>f.krklis</t>
+          <t>b.mhamid</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>905</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>905</t>
+          <t>230</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>t.kuok</t>
+          <t>b.stewart</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1583,80 +1419,64 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>1032</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1032</t>
+          <t>235</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>i.nalubwama</t>
+          <t>b.tong</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1668,165 +1488,109 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
           <t>b</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>1089</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1089</t>
+          <t>254</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>u.nhantumbo</t>
+          <t>c.arineitwe</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>1109</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1109</t>
+          <t>260</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>n.ofosu</t>
+          <t>c.baluka</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -1843,16 +1607,8 @@
       <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
           <t>l</t>
@@ -1897,111 +1653,79 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>1114</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1114</t>
+          <t>279</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>z.quekkwik</t>
+          <t>c.hamed</t>
         </is>
       </c>
       <c r="D19" t="n">
         <v>23</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
         <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>1115</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1115</t>
+          <t>285</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>f.kanyago</t>
+          <t>c.ji</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -2011,79 +1735,71 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>1118</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1118</t>
+          <t>289</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>l.namuyanja</t>
+          <t>c.kakayi</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2092,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2104,11 +1820,7 @@
           <t>b</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
           <t>b</t>
@@ -2148,30 +1860,30 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>1235</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1235</t>
+          <t>302</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>i.kyakimwa</t>
+          <t>c.langa</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -2181,73 +1893,73 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>1245</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1245</t>
+          <t>367</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>x.asiku</t>
+          <t>c.tukamushaba</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -2279,60 +1991,36 @@
           <t>l</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+      <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
           <t>l</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>1255</t>
+          <t>441</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1255</t>
+          <t>441</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>x.lunyolo</t>
+          <t>d.makumbi</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
@@ -2349,21 +2037,9 @@
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
           <t>l</t>
@@ -2403,24 +2079,24 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>1263</t>
+          <t>487</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1263</t>
+          <t>487</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>e.nambafu</t>
+          <t>d.sigauke</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2432,80 +2108,48 @@
         <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>1378</t>
+          <t>498</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1378</t>
+          <t>498</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>l.rahimi</t>
+          <t>d.tweheyo</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2514,80 +2158,48 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>1403</t>
+          <t>536</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1403</t>
+          <t>536</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>a.mucunguzi</t>
+          <t>e.gayakwad</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2596,39 +2208,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
           <t>b</t>
@@ -2649,33 +2241,29 @@
           <t>b</t>
         </is>
       </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
+      <c r="S27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>1425</t>
+          <t>569</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1425</t>
+          <t>569</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>n.twesigye</t>
+          <t>e.mudzingwa</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2691,164 +2279,144 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>1450</t>
+          <t>580</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1450</t>
+          <t>580</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>t.levy</t>
+          <t>e.nakanjako</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>1474</t>
+          <t>625</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1474</t>
+          <t>625</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>h.zare</t>
+          <t>f.akumu</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2857,80 +2425,80 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>1559</t>
+          <t>642</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1559</t>
+          <t>642</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>e.nemeth</t>
+          <t>f.chin</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2939,76 +2507,44 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>1577</t>
+          <t>662</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1577</t>
+          <t>662</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>v.persson</t>
+          <t>f.ithungu</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -3018,22 +2554,18 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>l</t>
@@ -3044,16 +2576,8 @@
           <t>l</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
           <t>l</t>
@@ -3083,106 +2607,70 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>1602</t>
+          <t>672</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1602</t>
+          <t>672</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>m.dbrowski</t>
+          <t>f.kobugabe</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>1612</t>
+          <t>675</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1612</t>
+          <t>675</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>w.nabuuma</t>
+          <t>f.lee</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,41 +2692,17 @@
           <t>b</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>b</t>
         </is>
       </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
+      <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
           <t>b</t>
@@ -3253,106 +2717,74 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>1625</t>
+          <t>756</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1625</t>
+          <t>756</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>d.saleh</t>
+          <t>g.bintisalleh</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>1644</t>
+          <t>786</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1644</t>
+          <t>786</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>w.tushabomwe</t>
+          <t>g.jankowski</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E36" t="n">
         <v>1</v>
@@ -3374,16 +2806,8 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
@@ -3399,109 +2823,81 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>1669</t>
+          <t>801</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1669</t>
+          <t>801</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>s.ghaffari</t>
+          <t>g.leitner</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>1705</t>
+          <t>834</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1705</t>
+          <t>834</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>v.kwiatkowski</t>
+          <t>g.namuganza</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3510,80 +2906,64 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>1708</t>
+          <t>887</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1708</t>
+          <t>887</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>j.ejang</t>
+          <t>h.azizi</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E39" t="n">
         <v>1</v>
@@ -3640,30 +3020,38 @@
           <t>l</t>
         </is>
       </c>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>1709</t>
+          <t>928</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1709</t>
+          <t>928</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>k.yldz</t>
+          <t>h.leong</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3672,80 +3060,48 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>1714</t>
+          <t>934</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1714</t>
+          <t>934</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>n.tamura</t>
+          <t>h.makumbi</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E41" t="n">
         <v>1</v>
@@ -3754,13 +3110,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3816,186 +3172,174 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>1732</t>
+          <t>955</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1732</t>
+          <t>955</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>z.buyinza</t>
+          <t>h.nsamba</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>1735</t>
+          <t>970</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1735</t>
+          <t>970</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>y.muyambo</t>
+          <t>h.robert</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>1737</t>
+          <t>978</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1737</t>
+          <t>978</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>f.segel</t>
+          <t>h.steiner</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -4004,80 +3348,72 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>1</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>1777</t>
+          <t>1074</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1777</t>
+          <t>1074</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>q.sumarni</t>
+          <t>i.nalubwama</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4094,163 +3430,127 @@
       <c r="I45" t="n">
         <v>1</v>
       </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
           <t>b</t>
         </is>
       </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>1823</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1823</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>f.mulindwa</t>
+          <t>i.saha</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>1885</t>
+          <t>1133</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1885</t>
+          <t>1133</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>o.namusoke</t>
+          <t>j.bah</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
@@ -4264,75 +3564,71 @@
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>1949</t>
+          <t>1140</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1949</t>
+          <t>1140</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>z.griffiths</t>
+          <t>j.chao</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
@@ -4349,75 +3645,39 @@
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>b</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>1959</t>
+          <t>1175</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1959</t>
+          <t>1175</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>u.mansour</t>
+          <t>j.lopez</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E49" t="n">
         <v>1</v>
@@ -4429,10 +3689,10 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4464,106 +3724,58 @@
           <t>l</t>
         </is>
       </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>1186</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>1186</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>u.chavez</t>
+          <t>j.mercier</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
           <t>b</t>
         </is>
       </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr">
         <is>
           <t>b</t>
@@ -4573,24 +3785,24 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>1190</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>1190</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>a.barbieri</t>
+          <t>j.mukalazi</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
@@ -4599,161 +3811,133 @@
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>z.nakiwala</t>
+          <t>j.odeke</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="P52" t="inlineStr"/>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>1227</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>1227</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>m.nakyejwe</t>
+          <t>j.sembiring</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
@@ -4762,10 +3946,10 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4824,24 +4008,24 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2128</t>
+          <t>1253</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2128</t>
+          <t>1253</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>k.awuah</t>
+          <t>k.ahimbisibwe</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -4856,126 +4040,150 @@
         <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
       <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2142</t>
+          <t>1256</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2142</t>
+          <t>1256</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>l.nangiro</t>
+          <t>k.alzahrani</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2155</t>
+          <t>1273</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2155</t>
+          <t>1273</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>c.pavlovi</t>
+          <t>k.chisi</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
@@ -4984,83 +4192,59 @@
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>b</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2240</t>
+          <t>1331</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2240</t>
+          <t>1331</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>d.pal</t>
+          <t>k.nalwanga</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
@@ -5074,84 +4258,56 @@
       <c r="I57" t="n">
         <v>1</v>
       </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>l</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2279</t>
+          <t>1336</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2279</t>
+          <t>1336</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>s.nuwagira</t>
+          <t>k.nasution</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -5159,16 +4315,8 @@
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
           <t>b</t>
@@ -5179,51 +4327,27 @@
           <t>b</t>
         </is>
       </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2280</t>
+          <t>1352</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2280</t>
+          <t>1352</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>k.nambozo</t>
+          <t>k.quarshie</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -5236,147 +4360,3220 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
           <t>b</t>
         </is>
       </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2335</t>
+          <t>1353</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2335</t>
+          <t>1353</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>e.mwesigye</t>
+          <t>k.ramos</t>
         </is>
       </c>
       <c r="D60" t="n">
+        <v>20</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>1428</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1428</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>l.leibowitz</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>22</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>1432</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1432</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>l.malinga</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>20</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>1456</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1456</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>l.ndoro</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>17</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>1506</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1506</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>m.ayebazibwe</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>26</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>1536</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1536</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>m.kabiru</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>23</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>1586</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1586</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>m.okori</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>19</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>1594</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1594</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>m.rashid</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>22</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>1607</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1607</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>m.tumuramye</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>26</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>1619</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1619</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>n.barukh</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>24</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>1637</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1637</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>n.irawan</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>24</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>1642</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1642</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>n.kigongo</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>23</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>1679</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1679</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>n.terzi</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>22</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>1687</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1687</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>n.yamashita</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>19</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>1705</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1705</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>o.burgos</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>21</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>1731</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>1731</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>o.mapfumo</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>21</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>1769</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>1769</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>o.tshuma</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>25</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>1773</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>1773</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>o.wanjala</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>23</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>1835</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>1835</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>p.otoo</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
         <v>18</v>
       </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" t="n">
-        <v>1</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>b</t>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>1839</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>1839</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>p.rabiu</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>27</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1</v>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>1849</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>1849</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>p.tibesigwa</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>17</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>1855</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>1855</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>p.villa</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>20</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1</v>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>1863</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>1863</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>q.ajiko</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>23</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>1885</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>1885</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>q.hamalainen</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>26</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>r.jimenez</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>20</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>r.nkosi</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>29</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>r.sanz</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>26</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>2056</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2056</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>s.chu</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>28</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>2090</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2090</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>s.nabasa</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>22</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="S88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>2111</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2111</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>s.razaee</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>24</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>2138</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2138</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>t.audu</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>27</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>2159</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2159</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>t.ichikawa</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>22</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>2193</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2193</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>t.okoro</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>26</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>2257</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2257</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>u.mayer</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>22</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>2341</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2341</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>v.mansoor</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>31</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>2373</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2373</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>v.sultan</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>20</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>2418</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2418</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>w.martinez</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>21</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>2429</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2429</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>w.nantale</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>19</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>2430</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2430</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>w.nasiru</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>33</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
+      <c r="R98" t="inlineStr"/>
+      <c r="S98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>2484</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2484</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>x.leroy</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>26</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr"/>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="inlineStr"/>
+      <c r="S99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>2526</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2526</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>x.takagi</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>23</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr"/>
+      <c r="S100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>2529</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2529</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>x.thomas</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>28</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr"/>
+      <c r="S101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>2531</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2531</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>x.tu</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>20</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
+      <c r="R102" t="inlineStr"/>
+      <c r="S102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>2543</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2543</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>y.akiror</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>20</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>1</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>2605</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2605</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>y.rabinovitch</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>28</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="Q104" t="inlineStr"/>
+      <c r="R104" t="inlineStr"/>
+      <c r="S104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>2617</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2617</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>y.thungu</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>22</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="Q105" t="inlineStr"/>
+      <c r="R105" t="inlineStr"/>
+      <c r="S105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>2662</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2662</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>z.kakai</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>26</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr"/>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr"/>
+      <c r="R106" t="inlineStr"/>
+      <c r="S106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>2684</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2684</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>z.nabaweesi</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>18</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>1</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr"/>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="R107" t="inlineStr"/>
+      <c r="S107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>2703</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2703</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>z.rojas</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>21</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>2716</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2716</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>z.zziwa</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>23</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr"/>
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="Q109" t="inlineStr"/>
+      <c r="R109" t="inlineStr"/>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>l</t>
         </is>
       </c>
     </row>
